--- a/Carga BF Voz.xlsx
+++ b/Carga BF Voz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nelson/Documents/REACT/evaluacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B681EBB-97AF-C64E-B406-5B77C19B02AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF90645-CFC8-124A-8E55-532A8878E47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="1200" windowWidth="27240" windowHeight="16440" xr2:uid="{F167972B-225C-3A43-988D-0E5FF5725D1E}"/>
+    <workbookView xWindow="6320" yWindow="1180" windowWidth="27240" windowHeight="16440" xr2:uid="{F167972B-225C-3A43-988D-0E5FF5725D1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Carga BF Voz" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9379" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9461" uniqueCount="1107">
   <si>
     <t>Pais</t>
   </si>
@@ -3394,6 +3394,18 @@
   </si>
   <si>
     <t>zzzzzz</t>
+  </si>
+  <si>
+    <t>Kyros</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Kii</t>
+  </si>
+  <si>
+    <t>aa</t>
   </si>
 </sst>
 </file>
@@ -4211,10 +4223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA461F6B-6533-5245-8118-B409AFC94560}">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4230,7 +4242,7 @@
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>969</v>
       </c>
@@ -4279,8 +4291,14 @@
       <c r="P1" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -4329,8 +4347,14 @@
       <c r="P2" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q2" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -4379,8 +4403,14 @@
       <c r="P3" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q3" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -4429,8 +4459,14 @@
       <c r="P4" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q4" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -4479,8 +4515,14 @@
       <c r="P5" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q5" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -4529,8 +4571,14 @@
       <c r="P6" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q6" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -4579,8 +4627,14 @@
       <c r="P7" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q7" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -4629,8 +4683,14 @@
       <c r="P8" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q8" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -4679,8 +4739,14 @@
       <c r="P9" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q9" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -4729,8 +4795,14 @@
       <c r="P10" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q10" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -4779,8 +4851,14 @@
       <c r="P11" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q11" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -4829,8 +4907,14 @@
       <c r="P12" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q12" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -4879,8 +4963,14 @@
       <c r="P13" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q13" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -4929,8 +5019,14 @@
       <c r="P14" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q14" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -4979,8 +5075,14 @@
       <c r="P15" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q15" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -5029,8 +5131,14 @@
       <c r="P16" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q16" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -5079,8 +5187,14 @@
       <c r="P17" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q17" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -5129,8 +5243,14 @@
       <c r="P18" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q18" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -5179,8 +5299,14 @@
       <c r="P19" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q19" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -5229,8 +5355,14 @@
       <c r="P20" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q20" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -5279,8 +5411,14 @@
       <c r="P21" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q21" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -5329,8 +5467,14 @@
       <c r="P22" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q22" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -5379,8 +5523,14 @@
       <c r="P23" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q23" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -5429,8 +5579,14 @@
       <c r="P24" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q24" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -5479,8 +5635,14 @@
       <c r="P25" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q25" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -5529,8 +5691,14 @@
       <c r="P26" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q26" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -5579,8 +5747,14 @@
       <c r="P27" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q27" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -5629,8 +5803,14 @@
       <c r="P28" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q28" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R28" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -5679,8 +5859,14 @@
       <c r="P29" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q29" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R29" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -5729,8 +5915,14 @@
       <c r="P30" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q30" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -5779,8 +5971,14 @@
       <c r="P31" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q31" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R31" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -5829,8 +6027,14 @@
       <c r="P32" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q32" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -5879,8 +6083,14 @@
       <c r="P33" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q33" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R33" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -5929,8 +6139,14 @@
       <c r="P34" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q34" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R34" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -5979,8 +6195,14 @@
       <c r="P35" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q35" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R35" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -6029,8 +6251,14 @@
       <c r="P36" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q36" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R36" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -6079,8 +6307,14 @@
       <c r="P37" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q37" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R37" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
         <v>37</v>
       </c>
@@ -6129,8 +6363,14 @@
       <c r="P38" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q38" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R38" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -6179,8 +6419,14 @@
       <c r="P39" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q39" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R39" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -6229,8 +6475,14 @@
       <c r="P40" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q40" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R40" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -6278,6 +6530,12 @@
       </c>
       <c r="P41" s="13" t="s">
         <v>1102</v>
+      </c>
+      <c r="Q41" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R41" s="13" t="s">
+        <v>1106</v>
       </c>
     </row>
   </sheetData>

--- a/Carga BF Voz.xlsx
+++ b/Carga BF Voz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nelson/Documents/REACT/evaluacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B681EBB-97AF-C64E-B406-5B77C19B02AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64B9BF1-9B7F-4743-AA02-17FC0CE4FF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6320" yWindow="1200" windowWidth="27240" windowHeight="16440" xr2:uid="{F167972B-225C-3A43-988D-0E5FF5725D1E}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9379" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9420" uniqueCount="1105">
   <si>
     <t>Pais</t>
   </si>
@@ -3394,6 +3394,12 @@
   </si>
   <si>
     <t>zzzzzz</t>
+  </si>
+  <si>
+    <t>Campo1</t>
+  </si>
+  <si>
+    <t>Hola</t>
   </si>
 </sst>
 </file>
@@ -4211,10 +4217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA461F6B-6533-5245-8118-B409AFC94560}">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4230,7 +4236,7 @@
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>969</v>
       </c>
@@ -4279,8 +4285,11 @@
       <c r="P1" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -4329,8 +4338,11 @@
       <c r="P2" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q2" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -4379,8 +4391,11 @@
       <c r="P3" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q3" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -4429,8 +4444,11 @@
       <c r="P4" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q4" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -4479,8 +4497,11 @@
       <c r="P5" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q5" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -4529,8 +4550,11 @@
       <c r="P6" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q6" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -4579,8 +4603,11 @@
       <c r="P7" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q7" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -4629,8 +4656,11 @@
       <c r="P8" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q8" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -4679,8 +4709,11 @@
       <c r="P9" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q9" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -4729,8 +4762,11 @@
       <c r="P10" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q10" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -4779,8 +4815,11 @@
       <c r="P11" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q11" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -4829,8 +4868,11 @@
       <c r="P12" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q12" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -4879,8 +4921,11 @@
       <c r="P13" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q13" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -4929,8 +4974,11 @@
       <c r="P14" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q14" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -4979,8 +5027,11 @@
       <c r="P15" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q15" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -5029,8 +5080,11 @@
       <c r="P16" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q16" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -5079,8 +5133,11 @@
       <c r="P17" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q17" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -5129,8 +5186,11 @@
       <c r="P18" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q18" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -5179,8 +5239,11 @@
       <c r="P19" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q19" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -5229,8 +5292,11 @@
       <c r="P20" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q20" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -5279,8 +5345,11 @@
       <c r="P21" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q21" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -5329,8 +5398,11 @@
       <c r="P22" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q22" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -5379,8 +5451,11 @@
       <c r="P23" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q23" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -5429,8 +5504,11 @@
       <c r="P24" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q24" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -5479,8 +5557,11 @@
       <c r="P25" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q25" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -5529,8 +5610,11 @@
       <c r="P26" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q26" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -5579,8 +5663,11 @@
       <c r="P27" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q27" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -5629,8 +5716,11 @@
       <c r="P28" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q28" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -5679,8 +5769,11 @@
       <c r="P29" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q29" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -5729,8 +5822,11 @@
       <c r="P30" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q30" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -5779,8 +5875,11 @@
       <c r="P31" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q31" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -5829,8 +5928,11 @@
       <c r="P32" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q32" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -5879,8 +5981,11 @@
       <c r="P33" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q33" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -5929,8 +6034,11 @@
       <c r="P34" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q34" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -5979,8 +6087,11 @@
       <c r="P35" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q35" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -6029,8 +6140,11 @@
       <c r="P36" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q36" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -6079,8 +6193,11 @@
       <c r="P37" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q37" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
         <v>37</v>
       </c>
@@ -6129,8 +6246,11 @@
       <c r="P38" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q38" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -6179,8 +6299,11 @@
       <c r="P39" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q39" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -6229,8 +6352,11 @@
       <c r="P40" s="13" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q40" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -6278,6 +6404,9 @@
       </c>
       <c r="P41" s="13" t="s">
         <v>1102</v>
+      </c>
+      <c r="Q41" s="13" t="s">
+        <v>1104</v>
       </c>
     </row>
   </sheetData>
@@ -6301,13 +6430,13 @@
     <cfRule type="duplicateValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H41">
-    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J2 J6 J10 J22 J26 J30 J38">
-    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12 J16 J20 J32 J36">
-    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="20"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -42579,31 +42708,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H884">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J2 J6 J10 J22 J26 J30 J38 J74 J110 J146 J182 J218 J254 J290 J326 J362 J398 J434 J470 J506 J542 J578 J614 J650 J686 J722 J758 J794 J830 J866 J42 J78 J114 J150 J186 J222 J258 J294 J330 J366 J402 J438 J474 J510 J546 J582 J618 J654 J690 J726 J762 J798 J834 J870 J46 J82 J118 J154 J190 J226 J262 J298 J334 J370 J406 J442 J478 J514 J550 J586 J622 J658 J694 J730 J766 J802 J838 J874 J58 J94 J130 J166 J202 J238 J274 J310 J346 J382 J418 J454 J490 J526 J562 J598 J634 J670 J706 J742 J778 J814 J850 J62 J98 J134 J170 J206 J242 J278 J314 J350 J386 J422 J458 J494 J530 J566 J602 J638 J674 J710 J746 J782 J818 J854 J66 J102 J138 J174 J210 J246 J282 J318 J354 J390 J426 J462 J498 J534 J570 J606 J642 J678 J714 J750 J786 J822 J858">
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12 J16 J20 J32 J36 J48 J84 J120 J156 J192 J228 J264 J300 J336 J372 J408 J444 J480 J516 J552 J588 J624 J660 J696 J732 J768 J804 J840 J876 J52 J88 J124 J160 J196 J232 J268 J304 J340 J376 J412 J448 J484 J520 J556 J592 J628 J664 J700 J736 J772 J808 J844 J880 J56 J92 J128 J164 J200 J236 J272 J308 J344 J380 J416 J452 J488 J524 J560 J596 J632 J668 J704 J740 J776 J812 J848 J884 J68 J104 J140 J176 J212 J248 J284 J320 J356 J392 J428 J464 J500 J536 J572 J608 J644 J680 J716 J752 J788 J824 J860 J72 J108 J144 J180 J216 J252 J288 J324 J360 J396 J432 J468 J504 J540 J576 J612 J648 J684 J720 J756 J792 J828 J864">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Carga BF Voz.xlsx
+++ b/Carga BF Voz.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nelson/Documents/REACT/evaluacion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nelson/Documents/REACT/evaluacion3/Proyecto-Evaluacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64B9BF1-9B7F-4743-AA02-17FC0CE4FF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B243C3F6-59CF-2948-B260-FF13A7B39197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="1200" windowWidth="27240" windowHeight="16440" xr2:uid="{F167972B-225C-3A43-988D-0E5FF5725D1E}"/>
+    <workbookView xWindow="6320" yWindow="1160" windowWidth="27240" windowHeight="16440" xr2:uid="{F167972B-225C-3A43-988D-0E5FF5725D1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Carga BF Voz" sheetId="1" r:id="rId1"/>
     <sheet name="Carga BF Voz (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9420" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9500" uniqueCount="1153">
   <si>
     <t>Pais</t>
   </si>
@@ -3400,6 +3400,150 @@
   </si>
   <si>
     <t>Hola</t>
+  </si>
+  <si>
+    <t>FechadeGestion</t>
+  </si>
+  <si>
+    <t>23-07-2023</t>
+  </si>
+  <si>
+    <t>24-07-2022</t>
+  </si>
+  <si>
+    <t>23-07-2024</t>
+  </si>
+  <si>
+    <t>23-07-2025</t>
+  </si>
+  <si>
+    <t>23-07-2026</t>
+  </si>
+  <si>
+    <t>23-07-2027</t>
+  </si>
+  <si>
+    <t>23-07-2028</t>
+  </si>
+  <si>
+    <t>23-07-2029</t>
+  </si>
+  <si>
+    <t>23-07-2030</t>
+  </si>
+  <si>
+    <t>23-07-2032</t>
+  </si>
+  <si>
+    <t>00:10:32</t>
+  </si>
+  <si>
+    <t>00:06:29</t>
+  </si>
+  <si>
+    <t>00:06:46</t>
+  </si>
+  <si>
+    <t>00:10:10</t>
+  </si>
+  <si>
+    <t>00:08:27</t>
+  </si>
+  <si>
+    <t>00:06:56</t>
+  </si>
+  <si>
+    <t>00:09:37</t>
+  </si>
+  <si>
+    <t>00:06:00</t>
+  </si>
+  <si>
+    <t>00:08:14</t>
+  </si>
+  <si>
+    <t>00:11:22</t>
+  </si>
+  <si>
+    <t>23-07-2022</t>
+  </si>
+  <si>
+    <t>00:11:18</t>
+  </si>
+  <si>
+    <t>00:05:12</t>
+  </si>
+  <si>
+    <t>00:07:34</t>
+  </si>
+  <si>
+    <t>00:10:12</t>
+  </si>
+  <si>
+    <t>00:07:44</t>
+  </si>
+  <si>
+    <t>00:07:03</t>
+  </si>
+  <si>
+    <t>00:07:17</t>
+  </si>
+  <si>
+    <t>00:05:35</t>
+  </si>
+  <si>
+    <t>00:05:34</t>
+  </si>
+  <si>
+    <t>00:06:22</t>
+  </si>
+  <si>
+    <t>00:09:41</t>
+  </si>
+  <si>
+    <t>00:07:46</t>
+  </si>
+  <si>
+    <t>00:06:54</t>
+  </si>
+  <si>
+    <t>00:07:42</t>
+  </si>
+  <si>
+    <t>00:10:20</t>
+  </si>
+  <si>
+    <t>00:08:09</t>
+  </si>
+  <si>
+    <t>00:11:46</t>
+  </si>
+  <si>
+    <t>00:05:14</t>
+  </si>
+  <si>
+    <t>00:08:16</t>
+  </si>
+  <si>
+    <t>00:05:59</t>
+  </si>
+  <si>
+    <t>00:05:19</t>
+  </si>
+  <si>
+    <t>00:09:55</t>
+  </si>
+  <si>
+    <t>00:08:01</t>
+  </si>
+  <si>
+    <t>00:08:08</t>
+  </si>
+  <si>
+    <t>00:08:28</t>
+  </si>
+  <si>
+    <t>00:06:04</t>
   </si>
 </sst>
 </file>
@@ -3635,7 +3779,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3721,22 +3865,29 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="21" fontId="9" fillId="6" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{6B48AB0D-45CE-4046-B7FF-3527FA97EF17}"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4219,8 +4370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA461F6B-6533-5245-8118-B409AFC94560}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4229,10 +4380,10 @@
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="37" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="92.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4249,8 +4400,8 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>970</v>
+      <c r="E1" s="36" t="s">
+        <v>1105</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -4302,8 +4453,8 @@
       <c r="D2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11">
-        <v>44766</v>
+      <c r="E2" s="38" t="s">
+        <v>1106</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>10</v>
@@ -4311,10 +4462,10 @@
       <c r="G2" s="31" t="s">
         <v>487</v>
       </c>
-      <c r="H2" s="34">
-        <v>7.3148148148148148E-3</v>
-      </c>
-      <c r="I2" s="35" t="s">
+      <c r="H2" s="39" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I2" s="40" t="s">
         <v>841</v>
       </c>
       <c r="J2" s="10" t="s">
@@ -4355,8 +4506,8 @@
       <c r="D3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="14">
-        <v>44766</v>
+      <c r="E3" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>11</v>
@@ -4364,8 +4515,8 @@
       <c r="G3" s="31" t="s">
         <v>488</v>
       </c>
-      <c r="H3" s="34">
-        <v>4.5023148148148149E-3</v>
+      <c r="H3" s="39" t="s">
+        <v>1117</v>
       </c>
       <c r="I3" s="35" t="s">
         <v>842</v>
@@ -4408,8 +4559,8 @@
       <c r="D4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="16">
-        <v>44766</v>
+      <c r="E4" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>12</v>
@@ -4417,8 +4568,8 @@
       <c r="G4" s="31" t="s">
         <v>489</v>
       </c>
-      <c r="H4" s="34">
-        <v>7.0601851851851841E-3</v>
+      <c r="H4" s="39" t="s">
+        <v>1119</v>
       </c>
       <c r="I4" s="35" t="s">
         <v>843</v>
@@ -4461,8 +4612,8 @@
       <c r="D5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="16">
-        <v>44766</v>
+      <c r="E5" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>13</v>
@@ -4470,8 +4621,8 @@
       <c r="G5" s="31" t="s">
         <v>490</v>
       </c>
-      <c r="H5" s="34">
-        <v>5.8680555555555543E-3</v>
+      <c r="H5" s="39" t="s">
+        <v>1120</v>
       </c>
       <c r="I5" s="35" t="s">
         <v>844</v>
@@ -4514,8 +4665,8 @@
       <c r="D6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="16">
-        <v>44766</v>
+      <c r="E6" s="38" t="s">
+        <v>1108</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>14</v>
@@ -4523,8 +4674,8 @@
       <c r="G6" s="31" t="s">
         <v>491</v>
       </c>
-      <c r="H6" s="34">
-        <v>4.8148148148148152E-3</v>
+      <c r="H6" s="39" t="s">
+        <v>1121</v>
       </c>
       <c r="I6" s="35" t="s">
         <v>845</v>
@@ -4567,8 +4718,8 @@
       <c r="D7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="16">
-        <v>44766</v>
+      <c r="E7" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>15</v>
@@ -4576,8 +4727,8 @@
       <c r="G7" s="31" t="s">
         <v>492</v>
       </c>
-      <c r="H7" s="34">
-        <v>6.6782407407407415E-3</v>
+      <c r="H7" s="39" t="s">
+        <v>1122</v>
       </c>
       <c r="I7" s="35" t="s">
         <v>846</v>
@@ -4620,8 +4771,8 @@
       <c r="D8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="16">
-        <v>44766</v>
+      <c r="E8" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>16</v>
@@ -4629,8 +4780,8 @@
       <c r="G8" s="31" t="s">
         <v>493</v>
       </c>
-      <c r="H8" s="34">
-        <v>4.1666666666666666E-3</v>
+      <c r="H8" s="39" t="s">
+        <v>1123</v>
       </c>
       <c r="I8" s="35" t="s">
         <v>847</v>
@@ -4673,8 +4824,8 @@
       <c r="D9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="16">
-        <v>44766</v>
+      <c r="E9" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>17</v>
@@ -4682,8 +4833,8 @@
       <c r="G9" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="H9" s="34">
-        <v>5.7175925925925927E-3</v>
+      <c r="H9" s="39" t="s">
+        <v>1124</v>
       </c>
       <c r="I9" s="35" t="s">
         <v>845</v>
@@ -4726,8 +4877,8 @@
       <c r="D10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="16">
-        <v>44766</v>
+      <c r="E10" s="38" t="s">
+        <v>1109</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>18</v>
@@ -4735,8 +4886,8 @@
       <c r="G10" s="31" t="s">
         <v>495</v>
       </c>
-      <c r="H10" s="34">
-        <v>7.8935185185185185E-3</v>
+      <c r="H10" s="39" t="s">
+        <v>1125</v>
       </c>
       <c r="I10" s="35" t="s">
         <v>848</v>
@@ -4779,8 +4930,8 @@
       <c r="D11" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="16">
-        <v>44766</v>
+      <c r="E11" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>19</v>
@@ -4788,8 +4939,8 @@
       <c r="G11" s="31" t="s">
         <v>496</v>
       </c>
-      <c r="H11" s="34">
-        <v>7.8472222222222224E-3</v>
+      <c r="H11" s="39" t="s">
+        <v>1127</v>
       </c>
       <c r="I11" s="35" t="s">
         <v>845</v>
@@ -4832,8 +4983,8 @@
       <c r="D12" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="16">
-        <v>44766</v>
+      <c r="E12" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>20</v>
@@ -4841,8 +4992,8 @@
       <c r="G12" s="31" t="s">
         <v>497</v>
       </c>
-      <c r="H12" s="34">
-        <v>3.6111111111111114E-3</v>
+      <c r="H12" s="39" t="s">
+        <v>1128</v>
       </c>
       <c r="I12" s="35" t="s">
         <v>849</v>
@@ -4885,8 +5036,8 @@
       <c r="D13" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="16">
-        <v>44766</v>
+      <c r="E13" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>21</v>
@@ -4894,8 +5045,8 @@
       <c r="G13" s="31" t="s">
         <v>498</v>
       </c>
-      <c r="H13" s="34">
-        <v>5.2546296296296299E-3</v>
+      <c r="H13" s="39" t="s">
+        <v>1129</v>
       </c>
       <c r="I13" s="35" t="s">
         <v>845</v>
@@ -4938,8 +5089,8 @@
       <c r="D14" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="16">
-        <v>44766</v>
+      <c r="E14" s="38" t="s">
+        <v>1110</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>22</v>
@@ -4947,8 +5098,8 @@
       <c r="G14" s="31" t="s">
         <v>499</v>
       </c>
-      <c r="H14" s="34">
-        <v>7.083333333333333E-3</v>
+      <c r="H14" s="39" t="s">
+        <v>1130</v>
       </c>
       <c r="I14" s="35" t="s">
         <v>850</v>
@@ -4991,8 +5142,8 @@
       <c r="D15" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="16">
-        <v>44766</v>
+      <c r="E15" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>23</v>
@@ -5000,8 +5151,8 @@
       <c r="G15" s="31" t="s">
         <v>500</v>
       </c>
-      <c r="H15" s="34">
-        <v>5.37037037037037E-3</v>
+      <c r="H15" s="39" t="s">
+        <v>1131</v>
       </c>
       <c r="I15" s="35" t="s">
         <v>851</v>
@@ -5044,8 +5195,8 @@
       <c r="D16" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="16">
-        <v>44766</v>
+      <c r="E16" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>24</v>
@@ -5053,8 +5204,8 @@
       <c r="G16" s="31" t="s">
         <v>501</v>
       </c>
-      <c r="H16" s="34">
-        <v>4.8958333333333328E-3</v>
+      <c r="H16" s="39" t="s">
+        <v>1132</v>
       </c>
       <c r="I16" s="35" t="s">
         <v>852</v>
@@ -5097,8 +5248,8 @@
       <c r="D17" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="16">
-        <v>44766</v>
+      <c r="E17" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>25</v>
@@ -5106,8 +5257,8 @@
       <c r="G17" s="31" t="s">
         <v>502</v>
       </c>
-      <c r="H17" s="34">
-        <v>5.0578703703703706E-3</v>
+      <c r="H17" s="39" t="s">
+        <v>1133</v>
       </c>
       <c r="I17" s="35" t="s">
         <v>853</v>
@@ -5150,8 +5301,8 @@
       <c r="D18" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="16">
-        <v>44766</v>
+      <c r="E18" s="38" t="s">
+        <v>1111</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>26</v>
@@ -5159,8 +5310,8 @@
       <c r="G18" s="31" t="s">
         <v>503</v>
       </c>
-      <c r="H18" s="34">
-        <v>3.8773148148148143E-3</v>
+      <c r="H18" s="39" t="s">
+        <v>1134</v>
       </c>
       <c r="I18" s="35" t="s">
         <v>854</v>
@@ -5203,8 +5354,8 @@
       <c r="D19" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="16">
-        <v>44774</v>
+      <c r="E19" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>27</v>
@@ -5212,8 +5363,8 @@
       <c r="G19" s="31" t="s">
         <v>504</v>
       </c>
-      <c r="H19" s="34">
-        <v>3.8657407407407408E-3</v>
+      <c r="H19" s="39" t="s">
+        <v>1135</v>
       </c>
       <c r="I19" s="35" t="s">
         <v>855</v>
@@ -5256,8 +5407,8 @@
       <c r="D20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="16">
-        <v>44774</v>
+      <c r="E20" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>28</v>
@@ -5265,8 +5416,8 @@
       <c r="G20" s="31" t="s">
         <v>505</v>
       </c>
-      <c r="H20" s="34">
-        <v>4.4212962962962956E-3</v>
+      <c r="H20" s="39" t="s">
+        <v>1136</v>
       </c>
       <c r="I20" s="35" t="s">
         <v>856</v>
@@ -5309,8 +5460,8 @@
       <c r="D21" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="16">
-        <v>44774</v>
+      <c r="E21" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>32</v>
@@ -5318,8 +5469,8 @@
       <c r="G21" s="31" t="s">
         <v>506</v>
       </c>
-      <c r="H21" s="34">
-        <v>6.7245370370370367E-3</v>
+      <c r="H21" s="41" t="s">
+        <v>1137</v>
       </c>
       <c r="I21" s="35" t="s">
         <v>845</v>
@@ -5362,8 +5513,8 @@
       <c r="D22" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="16">
-        <v>44774</v>
+      <c r="E22" s="38" t="s">
+        <v>1112</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>33</v>
@@ -5371,8 +5522,8 @@
       <c r="G22" s="31" t="s">
         <v>507</v>
       </c>
-      <c r="H22" s="34">
-        <v>5.3935185185185188E-3</v>
+      <c r="H22" s="39" t="s">
+        <v>1138</v>
       </c>
       <c r="I22" s="35" t="s">
         <v>857</v>
@@ -5415,8 +5566,8 @@
       <c r="D23" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="16">
-        <v>44774</v>
+      <c r="E23" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>34</v>
@@ -5424,8 +5575,8 @@
       <c r="G23" s="31" t="s">
         <v>508</v>
       </c>
-      <c r="H23" s="34">
-        <v>5.347222222222222E-3</v>
+      <c r="H23" s="39" t="s">
+        <v>1140</v>
       </c>
       <c r="I23" s="35" t="s">
         <v>858</v>
@@ -5468,8 +5619,8 @@
       <c r="D24" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="16">
-        <v>44774</v>
+      <c r="E24" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>35</v>
@@ -5477,8 +5628,8 @@
       <c r="G24" s="31" t="s">
         <v>509</v>
       </c>
-      <c r="H24" s="34">
-        <v>4.7916666666666672E-3</v>
+      <c r="H24" s="39" t="s">
+        <v>1139</v>
       </c>
       <c r="I24" s="35" t="s">
         <v>845</v>
@@ -5521,8 +5672,8 @@
       <c r="D25" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="16">
-        <v>44774</v>
+      <c r="E25" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>36</v>
@@ -5530,8 +5681,8 @@
       <c r="G25" s="31" t="s">
         <v>510</v>
       </c>
-      <c r="H25" s="34">
-        <v>7.1759259259259259E-3</v>
+      <c r="H25" s="39" t="s">
+        <v>1141</v>
       </c>
       <c r="I25" s="35" t="s">
         <v>859</v>
@@ -5574,8 +5725,8 @@
       <c r="D26" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="16">
-        <v>44774</v>
+      <c r="E26" s="38" t="s">
+        <v>1113</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>37</v>
@@ -5583,8 +5734,8 @@
       <c r="G26" s="31" t="s">
         <v>511</v>
       </c>
-      <c r="H26" s="34">
-        <v>5.6597222222222222E-3</v>
+      <c r="H26" s="39" t="s">
+        <v>1142</v>
       </c>
       <c r="I26" s="35" t="s">
         <v>860</v>
@@ -5627,8 +5778,8 @@
       <c r="D27" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="16">
-        <v>44774</v>
+      <c r="E27" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>38</v>
@@ -5636,8 +5787,8 @@
       <c r="G27" s="31" t="s">
         <v>512</v>
       </c>
-      <c r="H27" s="34">
-        <v>3.6342592592592594E-3</v>
+      <c r="H27" s="39" t="s">
+        <v>1144</v>
       </c>
       <c r="I27" s="35" t="s">
         <v>861</v>
@@ -5680,8 +5831,8 @@
       <c r="D28" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="16">
-        <v>44774</v>
+      <c r="E28" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>39</v>
@@ -5689,8 +5840,8 @@
       <c r="G28" s="31" t="s">
         <v>513</v>
       </c>
-      <c r="H28" s="34">
-        <v>8.1712962962962963E-3</v>
+      <c r="H28" s="39" t="s">
+        <v>1143</v>
       </c>
       <c r="I28" s="35" t="s">
         <v>862</v>
@@ -5733,8 +5884,8 @@
       <c r="D29" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="16">
-        <v>44774</v>
+      <c r="E29" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>40</v>
@@ -5742,8 +5893,8 @@
       <c r="G29" s="31" t="s">
         <v>514</v>
       </c>
-      <c r="H29" s="34">
-        <v>3.6342592592592594E-3</v>
+      <c r="H29" s="39" t="s">
+        <v>1144</v>
       </c>
       <c r="I29" s="35" t="s">
         <v>863</v>
@@ -5786,8 +5937,8 @@
       <c r="D30" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="16">
-        <v>44774</v>
+      <c r="E30" s="38" t="s">
+        <v>1114</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>41</v>
@@ -5795,8 +5946,8 @@
       <c r="G30" s="31" t="s">
         <v>515</v>
       </c>
-      <c r="H30" s="34">
-        <v>5.7407407407407416E-3</v>
+      <c r="H30" s="39" t="s">
+        <v>1145</v>
       </c>
       <c r="I30" s="35" t="s">
         <v>864</v>
@@ -5839,8 +5990,8 @@
       <c r="D31" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="16">
-        <v>44774</v>
+      <c r="E31" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>42</v>
@@ -5848,8 +5999,8 @@
       <c r="G31" s="31" t="s">
         <v>516</v>
       </c>
-      <c r="H31" s="34">
-        <v>4.155092592592593E-3</v>
+      <c r="H31" s="39" t="s">
+        <v>1146</v>
       </c>
       <c r="I31" s="35" t="s">
         <v>865</v>
@@ -5892,8 +6043,8 @@
       <c r="D32" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="16">
-        <v>44774</v>
+      <c r="E32" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>43</v>
@@ -5901,8 +6052,8 @@
       <c r="G32" s="31" t="s">
         <v>517</v>
       </c>
-      <c r="H32" s="34">
-        <v>5.8680555555555543E-3</v>
+      <c r="H32" s="39" t="s">
+        <v>1120</v>
       </c>
       <c r="I32" s="35" t="s">
         <v>866</v>
@@ -5945,8 +6096,8 @@
       <c r="D33" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="16">
-        <v>44774</v>
+      <c r="E33" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>44</v>
@@ -5954,8 +6105,8 @@
       <c r="G33" s="31" t="s">
         <v>518</v>
       </c>
-      <c r="H33" s="34">
-        <v>4.6990740740740743E-3</v>
+      <c r="H33" s="39" t="s">
+        <v>1118</v>
       </c>
       <c r="I33" s="35" t="s">
         <v>867</v>
@@ -5998,8 +6149,8 @@
       <c r="D34" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="16">
-        <v>44774</v>
+      <c r="E34" s="38" t="s">
+        <v>1126</v>
       </c>
       <c r="F34" s="15" t="s">
         <v>45</v>
@@ -6007,8 +6158,8 @@
       <c r="G34" s="31" t="s">
         <v>519</v>
       </c>
-      <c r="H34" s="34">
-        <v>6.8865740740740736E-3</v>
+      <c r="H34" s="39" t="s">
+        <v>1148</v>
       </c>
       <c r="I34" s="35" t="s">
         <v>845</v>
@@ -6051,8 +6202,8 @@
       <c r="D35" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="16">
-        <v>44774</v>
+      <c r="E35" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>46</v>
@@ -6060,8 +6211,8 @@
       <c r="G35" s="31" t="s">
         <v>520</v>
       </c>
-      <c r="H35" s="34">
-        <v>3.6921296296296298E-3</v>
+      <c r="H35" s="39" t="s">
+        <v>1147</v>
       </c>
       <c r="I35" s="35" t="s">
         <v>868</v>
@@ -6104,8 +6255,8 @@
       <c r="D36" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="16">
-        <v>44774</v>
+      <c r="E36" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F36" s="15" t="s">
         <v>47</v>
@@ -6113,8 +6264,8 @@
       <c r="G36" s="31" t="s">
         <v>521</v>
       </c>
-      <c r="H36" s="34">
-        <v>4.8958333333333328E-3</v>
+      <c r="H36" s="39" t="s">
+        <v>1132</v>
       </c>
       <c r="I36" s="35" t="s">
         <v>869</v>
@@ -6157,8 +6308,8 @@
       <c r="D37" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="16">
-        <v>44774</v>
+      <c r="E37" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F37" s="15" t="s">
         <v>48</v>
@@ -6166,8 +6317,8 @@
       <c r="G37" s="31" t="s">
         <v>522</v>
       </c>
-      <c r="H37" s="34">
-        <v>5.5671296296296302E-3</v>
+      <c r="H37" s="39" t="s">
+        <v>1149</v>
       </c>
       <c r="I37" s="35" t="s">
         <v>870</v>
@@ -6210,8 +6361,8 @@
       <c r="D38" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="16">
-        <v>44774</v>
+      <c r="E38" s="38" t="s">
+        <v>1115</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>50</v>
@@ -6219,8 +6370,8 @@
       <c r="G38" s="31" t="s">
         <v>523</v>
       </c>
-      <c r="H38" s="34">
-        <v>5.6481481481481478E-3</v>
+      <c r="H38" s="39" t="s">
+        <v>1150</v>
       </c>
       <c r="I38" s="35" t="s">
         <v>871</v>
@@ -6263,8 +6414,8 @@
       <c r="D39" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="16">
-        <v>44774</v>
+      <c r="E39" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>51</v>
@@ -6272,8 +6423,8 @@
       <c r="G39" s="31" t="s">
         <v>524</v>
       </c>
-      <c r="H39" s="34">
-        <v>5.8796296296296296E-3</v>
+      <c r="H39" s="39" t="s">
+        <v>1151</v>
       </c>
       <c r="I39" s="35" t="s">
         <v>872</v>
@@ -6316,8 +6467,8 @@
       <c r="D40" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="16">
-        <v>44774</v>
+      <c r="E40" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F40" s="15" t="s">
         <v>52</v>
@@ -6325,8 +6476,8 @@
       <c r="G40" s="31" t="s">
         <v>525</v>
       </c>
-      <c r="H40" s="34">
-        <v>4.8148148148148152E-3</v>
+      <c r="H40" s="39" t="s">
+        <v>1121</v>
       </c>
       <c r="I40" s="35" t="s">
         <v>873</v>
@@ -6369,8 +6520,8 @@
       <c r="D41" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="16">
-        <v>44774</v>
+      <c r="E41" s="38" t="s">
+        <v>1107</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>53</v>
@@ -6378,8 +6529,8 @@
       <c r="G41" s="31" t="s">
         <v>526</v>
       </c>
-      <c r="H41" s="34">
-        <v>4.2129629629629626E-3</v>
+      <c r="H41" s="39" t="s">
+        <v>1152</v>
       </c>
       <c r="I41" s="35" t="s">
         <v>874</v>
@@ -6411,32 +6562,29 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="17" priority="5"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I1">
     <cfRule type="duplicateValues" dxfId="16" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
     <cfRule type="duplicateValues" dxfId="15" priority="7"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J2 J6 J10 J22 J26 J30 J38">
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12 J16 J20 J32 J36">
+    <cfRule type="duplicateValues" dxfId="12" priority="20"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H41">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J2 J6 J10 J22 J26 J30 J38">
-    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12 J16 J20 J32 J36">
-    <cfRule type="duplicateValues" dxfId="9" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -42708,31 +42856,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H884">
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J2 J6 J10 J22 J26 J30 J38 J74 J110 J146 J182 J218 J254 J290 J326 J362 J398 J434 J470 J506 J542 J578 J614 J650 J686 J722 J758 J794 J830 J866 J42 J78 J114 J150 J186 J222 J258 J294 J330 J366 J402 J438 J474 J510 J546 J582 J618 J654 J690 J726 J762 J798 J834 J870 J46 J82 J118 J154 J190 J226 J262 J298 J334 J370 J406 J442 J478 J514 J550 J586 J622 J658 J694 J730 J766 J802 J838 J874 J58 J94 J130 J166 J202 J238 J274 J310 J346 J382 J418 J454 J490 J526 J562 J598 J634 J670 J706 J742 J778 J814 J850 J62 J98 J134 J170 J206 J242 J278 J314 J350 J386 J422 J458 J494 J530 J566 J602 J638 J674 J710 J746 J782 J818 J854 J66 J102 J138 J174 J210 J246 J282 J318 J354 J390 J426 J462 J498 J534 J570 J606 J642 J678 J714 J750 J786 J822 J858">
-    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12 J16 J20 J32 J36 J48 J84 J120 J156 J192 J228 J264 J300 J336 J372 J408 J444 J480 J516 J552 J588 J624 J660 J696 J732 J768 J804 J840 J876 J52 J88 J124 J160 J196 J232 J268 J304 J340 J376 J412 J448 J484 J520 J556 J592 J628 J664 J700 J736 J772 J808 J844 J880 J56 J92 J128 J164 J200 J236 J272 J308 J344 J380 J416 J452 J488 J524 J560 J596 J632 J668 J704 J740 J776 J812 J848 J884 J68 J104 J140 J176 J212 J248 J284 J320 J356 J392 J428 J464 J500 J536 J572 J608 J644 J680 J716 J752 J788 J824 J860 J72 J108 J144 J180 J216 J252 J288 J324 J360 J396 J432 J468 J504 J540 J576 J612 J648 J684 J720 J756 J792 J828 J864">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Carga BF Voz.xlsx
+++ b/Carga BF Voz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nelson/Documents/REACT/evaluacion3/Proyecto-Evaluacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B243C3F6-59CF-2948-B260-FF13A7B39197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B72014FA-7186-1D43-A5E6-790BE89FD07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6320" yWindow="1160" windowWidth="27240" windowHeight="16440" xr2:uid="{F167972B-225C-3A43-988D-0E5FF5725D1E}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9500" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10140" uniqueCount="1153">
   <si>
     <t>Pais</t>
   </si>
@@ -3887,7 +3887,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{6B48AB0D-45CE-4046-B7FF-3527FA97EF17}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4368,10 +4388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA461F6B-6533-5245-8118-B409AFC94560}">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6560,31 +6580,2157 @@
         <v>1104</v>
       </c>
     </row>
+    <row r="42" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="13">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="H42" s="39" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I42" s="40" t="s">
+        <v>841</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>950</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>960</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>974</v>
+      </c>
+      <c r="M42" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="N42" s="13" t="s">
+        <v>1054</v>
+      </c>
+      <c r="O42" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P42" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q42" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="13">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="H43" s="39" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I43" s="35" t="s">
+        <v>842</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>975</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>1015</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="O43" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P43" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q43" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="13">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="H44" s="39" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I44" s="35" t="s">
+        <v>843</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>976</v>
+      </c>
+      <c r="M44" s="13" t="s">
+        <v>1016</v>
+      </c>
+      <c r="N44" s="13" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O44" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P44" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q44" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="13">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I45" s="35" t="s">
+        <v>844</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>963</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>977</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>1017</v>
+      </c>
+      <c r="N45" s="13" t="s">
+        <v>1057</v>
+      </c>
+      <c r="O45" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P45" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q45" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="13">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>491</v>
+      </c>
+      <c r="H46" s="39" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I46" s="35" t="s">
+        <v>845</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>954</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>964</v>
+      </c>
+      <c r="L46" s="13" t="s">
+        <v>978</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>1018</v>
+      </c>
+      <c r="N46" s="13" t="s">
+        <v>1058</v>
+      </c>
+      <c r="O46" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P46" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q46" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="13">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I47" s="35" t="s">
+        <v>846</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="L47" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="M47" s="13" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N47" s="13" t="s">
+        <v>1059</v>
+      </c>
+      <c r="O47" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P47" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q47" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="13">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="H48" s="39" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I48" s="35" t="s">
+        <v>847</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>966</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>1020</v>
+      </c>
+      <c r="N48" s="13" t="s">
+        <v>1060</v>
+      </c>
+      <c r="O48" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P48" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q48" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="13">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="H49" s="39" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I49" s="35" t="s">
+        <v>845</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>960</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>981</v>
+      </c>
+      <c r="M49" s="13" t="s">
+        <v>1021</v>
+      </c>
+      <c r="N49" s="13" t="s">
+        <v>1061</v>
+      </c>
+      <c r="O49" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P49" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q49" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="13">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="38" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="H50" s="39" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I50" s="35" t="s">
+        <v>848</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>958</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>982</v>
+      </c>
+      <c r="M50" s="13" t="s">
+        <v>1022</v>
+      </c>
+      <c r="N50" s="13" t="s">
+        <v>1062</v>
+      </c>
+      <c r="O50" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P50" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q50" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="13">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="H51" s="39" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I51" s="35" t="s">
+        <v>845</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="L51" s="13" t="s">
+        <v>983</v>
+      </c>
+      <c r="M51" s="13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N51" s="13" t="s">
+        <v>1063</v>
+      </c>
+      <c r="O51" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P51" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q51" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="13">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="H52" s="39" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I52" s="35" t="s">
+        <v>849</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>950</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>963</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>984</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N52" s="13" t="s">
+        <v>1064</v>
+      </c>
+      <c r="O52" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P52" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q52" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="13">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>498</v>
+      </c>
+      <c r="H53" s="39" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I53" s="35" t="s">
+        <v>845</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>964</v>
+      </c>
+      <c r="L53" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="M53" s="13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="N53" s="13" t="s">
+        <v>1065</v>
+      </c>
+      <c r="O53" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P53" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q53" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="13">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="38" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="H54" s="39" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I54" s="35" t="s">
+        <v>850</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="L54" s="13" t="s">
+        <v>986</v>
+      </c>
+      <c r="M54" s="13" t="s">
+        <v>1026</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>1066</v>
+      </c>
+      <c r="O54" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P54" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q54" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="13">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="H55" s="39" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I55" s="35" t="s">
+        <v>851</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>966</v>
+      </c>
+      <c r="L55" s="13" t="s">
+        <v>987</v>
+      </c>
+      <c r="M55" s="13" t="s">
+        <v>1027</v>
+      </c>
+      <c r="N55" s="13" t="s">
+        <v>1067</v>
+      </c>
+      <c r="O55" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P55" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q55" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="13">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="H56" s="39" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I56" s="35" t="s">
+        <v>852</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>954</v>
+      </c>
+      <c r="K56" s="13" t="s">
+        <v>960</v>
+      </c>
+      <c r="L56" s="13" t="s">
+        <v>988</v>
+      </c>
+      <c r="M56" s="13" t="s">
+        <v>1028</v>
+      </c>
+      <c r="N56" s="13" t="s">
+        <v>1068</v>
+      </c>
+      <c r="O56" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P56" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q56" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="13">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="H57" s="39" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I57" s="35" t="s">
+        <v>853</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="L57" s="13" t="s">
+        <v>989</v>
+      </c>
+      <c r="M57" s="13" t="s">
+        <v>1029</v>
+      </c>
+      <c r="N57" s="13" t="s">
+        <v>1069</v>
+      </c>
+      <c r="O57" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P57" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q57" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="13">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="H58" s="39" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I58" s="35" t="s">
+        <v>854</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="L58" s="13" t="s">
+        <v>990</v>
+      </c>
+      <c r="M58" s="13" t="s">
+        <v>1030</v>
+      </c>
+      <c r="N58" s="13" t="s">
+        <v>1070</v>
+      </c>
+      <c r="O58" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P58" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q58" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="13">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="31" t="s">
+        <v>504</v>
+      </c>
+      <c r="H59" s="39" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I59" s="35" t="s">
+        <v>855</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="K59" s="13" t="s">
+        <v>963</v>
+      </c>
+      <c r="L59" s="13" t="s">
+        <v>991</v>
+      </c>
+      <c r="M59" s="13" t="s">
+        <v>1031</v>
+      </c>
+      <c r="N59" s="13" t="s">
+        <v>1071</v>
+      </c>
+      <c r="O59" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P59" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q59" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="13">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="31" t="s">
+        <v>505</v>
+      </c>
+      <c r="H60" s="39" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I60" s="35" t="s">
+        <v>856</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>958</v>
+      </c>
+      <c r="K60" s="13" t="s">
+        <v>964</v>
+      </c>
+      <c r="L60" s="13" t="s">
+        <v>992</v>
+      </c>
+      <c r="M60" s="13" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N60" s="13" t="s">
+        <v>1072</v>
+      </c>
+      <c r="O60" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P60" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q60" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="13">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="H61" s="41" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I61" s="35" t="s">
+        <v>845</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="L61" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="M61" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N61" s="13" t="s">
+        <v>1073</v>
+      </c>
+      <c r="O61" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P61" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q61" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="13">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="H62" s="39" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I62" s="35" t="s">
+        <v>857</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>950</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>966</v>
+      </c>
+      <c r="L62" s="13" t="s">
+        <v>994</v>
+      </c>
+      <c r="M62" s="13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N62" s="13" t="s">
+        <v>1074</v>
+      </c>
+      <c r="O62" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P62" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q62" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="13">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" s="31" t="s">
+        <v>508</v>
+      </c>
+      <c r="H63" s="39" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I63" s="35" t="s">
+        <v>858</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>960</v>
+      </c>
+      <c r="L63" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="M63" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N63" s="13" t="s">
+        <v>1075</v>
+      </c>
+      <c r="O63" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P63" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q63" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="13">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="H64" s="39" t="s">
+        <v>1139</v>
+      </c>
+      <c r="I64" s="35" t="s">
+        <v>845</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="L64" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="M64" s="13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="N64" s="13" t="s">
+        <v>1076</v>
+      </c>
+      <c r="O64" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P64" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q64" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="13">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="H65" s="39" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I65" s="35" t="s">
+        <v>859</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="K65" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="L65" s="13" t="s">
+        <v>997</v>
+      </c>
+      <c r="M65" s="13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="N65" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="O65" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P65" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q65" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="13">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G66" s="31" t="s">
+        <v>511</v>
+      </c>
+      <c r="H66" s="39" t="s">
+        <v>1142</v>
+      </c>
+      <c r="I66" s="35" t="s">
+        <v>860</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>954</v>
+      </c>
+      <c r="K66" s="13" t="s">
+        <v>963</v>
+      </c>
+      <c r="L66" s="13" t="s">
+        <v>998</v>
+      </c>
+      <c r="M66" s="13" t="s">
+        <v>1038</v>
+      </c>
+      <c r="N66" s="13" t="s">
+        <v>1078</v>
+      </c>
+      <c r="O66" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P66" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q66" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" s="13">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G67" s="31" t="s">
+        <v>512</v>
+      </c>
+      <c r="H67" s="39" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I67" s="35" t="s">
+        <v>861</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>964</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>999</v>
+      </c>
+      <c r="M67" s="13" t="s">
+        <v>1039</v>
+      </c>
+      <c r="N67" s="13" t="s">
+        <v>1079</v>
+      </c>
+      <c r="O67" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P67" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q67" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" s="13">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G68" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="H68" s="39" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I68" s="35" t="s">
+        <v>862</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="K68" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="L68" s="13" t="s">
+        <v>1000</v>
+      </c>
+      <c r="M68" s="13" t="s">
+        <v>1040</v>
+      </c>
+      <c r="N68" s="13" t="s">
+        <v>1080</v>
+      </c>
+      <c r="O68" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P68" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q68" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69" s="13">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G69" s="31" t="s">
+        <v>514</v>
+      </c>
+      <c r="H69" s="39" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I69" s="35" t="s">
+        <v>863</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="K69" s="13" t="s">
+        <v>966</v>
+      </c>
+      <c r="L69" s="13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="M69" s="13" t="s">
+        <v>1041</v>
+      </c>
+      <c r="N69" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="O69" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P69" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q69" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" s="13">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" s="38" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="H70" s="39" t="s">
+        <v>1145</v>
+      </c>
+      <c r="I70" s="35" t="s">
+        <v>864</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>958</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>960</v>
+      </c>
+      <c r="L70" s="13" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M70" s="13" t="s">
+        <v>1042</v>
+      </c>
+      <c r="N70" s="13" t="s">
+        <v>1082</v>
+      </c>
+      <c r="O70" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P70" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q70" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71" s="13">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" s="31" t="s">
+        <v>516</v>
+      </c>
+      <c r="H71" s="39" t="s">
+        <v>1146</v>
+      </c>
+      <c r="I71" s="35" t="s">
+        <v>865</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="K71" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="L71" s="13" t="s">
+        <v>1003</v>
+      </c>
+      <c r="M71" s="13" t="s">
+        <v>1043</v>
+      </c>
+      <c r="N71" s="13" t="s">
+        <v>1083</v>
+      </c>
+      <c r="O71" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P71" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q71" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A72" s="13">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G72" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="H72" s="39" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I72" s="35" t="s">
+        <v>866</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>950</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="L72" s="13" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M72" s="13" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N72" s="13" t="s">
+        <v>1084</v>
+      </c>
+      <c r="O72" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P72" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q72" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A73" s="13">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G73" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="H73" s="39" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I73" s="35" t="s">
+        <v>867</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="K73" s="13" t="s">
+        <v>963</v>
+      </c>
+      <c r="L73" s="13" t="s">
+        <v>1005</v>
+      </c>
+      <c r="M73" s="13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="N73" s="13" t="s">
+        <v>1085</v>
+      </c>
+      <c r="O73" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P73" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q73" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A74" s="13">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" s="38" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G74" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="H74" s="39" t="s">
+        <v>1148</v>
+      </c>
+      <c r="I74" s="35" t="s">
+        <v>845</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="K74" s="13" t="s">
+        <v>964</v>
+      </c>
+      <c r="L74" s="13" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M74" s="13" t="s">
+        <v>1046</v>
+      </c>
+      <c r="N74" s="13" t="s">
+        <v>1086</v>
+      </c>
+      <c r="O74" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P74" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q74" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" s="13">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E75" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G75" s="31" t="s">
+        <v>520</v>
+      </c>
+      <c r="H75" s="39" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I75" s="35" t="s">
+        <v>868</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="K75" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="L75" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M75" s="13" t="s">
+        <v>1047</v>
+      </c>
+      <c r="N75" s="13" t="s">
+        <v>1087</v>
+      </c>
+      <c r="O75" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P75" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q75" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="13">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G76" s="31" t="s">
+        <v>521</v>
+      </c>
+      <c r="H76" s="39" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I76" s="35" t="s">
+        <v>869</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>954</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>966</v>
+      </c>
+      <c r="L76" s="13" t="s">
+        <v>1008</v>
+      </c>
+      <c r="M76" s="13" t="s">
+        <v>1048</v>
+      </c>
+      <c r="N76" s="13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="O76" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P76" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q76" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="13">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G77" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="H77" s="39" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I77" s="35" t="s">
+        <v>870</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="K77" s="13" t="s">
+        <v>960</v>
+      </c>
+      <c r="L77" s="13" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M77" s="13" t="s">
+        <v>1049</v>
+      </c>
+      <c r="N77" s="13" t="s">
+        <v>1089</v>
+      </c>
+      <c r="O77" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P77" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q77" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="13">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E78" s="38" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G78" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="H78" s="39" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I78" s="35" t="s">
+        <v>871</v>
+      </c>
+      <c r="J78" s="10" t="s">
+        <v>950</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="L78" s="13" t="s">
+        <v>1010</v>
+      </c>
+      <c r="M78" s="13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="N78" s="13" t="s">
+        <v>1090</v>
+      </c>
+      <c r="O78" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P78" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q78" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="13">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G79" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="H79" s="39" t="s">
+        <v>1151</v>
+      </c>
+      <c r="I79" s="35" t="s">
+        <v>872</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="K79" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="L79" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M79" s="13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="N79" s="13" t="s">
+        <v>1091</v>
+      </c>
+      <c r="O79" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P79" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q79" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="13">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E80" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G80" s="31" t="s">
+        <v>525</v>
+      </c>
+      <c r="H80" s="39" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I80" s="35" t="s">
+        <v>873</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="K80" s="13" t="s">
+        <v>963</v>
+      </c>
+      <c r="L80" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M80" s="13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="N80" s="13" t="s">
+        <v>1092</v>
+      </c>
+      <c r="O80" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P80" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q80" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="13">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E81" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G81" s="31" t="s">
+        <v>526</v>
+      </c>
+      <c r="H81" s="39" t="s">
+        <v>1152</v>
+      </c>
+      <c r="I81" s="35" t="s">
+        <v>874</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="K81" s="13" t="s">
+        <v>964</v>
+      </c>
+      <c r="L81" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M81" s="13" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N81" s="13" t="s">
+        <v>1093</v>
+      </c>
+      <c r="O81" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P81" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q81" s="13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="16" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J2 J6 J10 J22 J26 J30 J38">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12 J16 J20 J32 J36">
-    <cfRule type="duplicateValues" dxfId="12" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="11" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H41">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+  <conditionalFormatting sqref="H1:H81">
+    <cfRule type="duplicateValues" dxfId="11" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42 J46 J50 J62 J66 J70 J78">
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52 J56 J60 J72 J76">
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -42856,31 +45002,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H884">
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J2 J6 J10 J22 J26 J30 J38 J74 J110 J146 J182 J218 J254 J290 J326 J362 J398 J434 J470 J506 J542 J578 J614 J650 J686 J722 J758 J794 J830 J866 J42 J78 J114 J150 J186 J222 J258 J294 J330 J366 J402 J438 J474 J510 J546 J582 J618 J654 J690 J726 J762 J798 J834 J870 J46 J82 J118 J154 J190 J226 J262 J298 J334 J370 J406 J442 J478 J514 J550 J586 J622 J658 J694 J730 J766 J802 J838 J874 J58 J94 J130 J166 J202 J238 J274 J310 J346 J382 J418 J454 J490 J526 J562 J598 J634 J670 J706 J742 J778 J814 J850 J62 J98 J134 J170 J206 J242 J278 J314 J350 J386 J422 J458 J494 J530 J566 J602 J638 J674 J710 J746 J782 J818 J854 J66 J102 J138 J174 J210 J246 J282 J318 J354 J390 J426 J462 J498 J534 J570 J606 J642 J678 J714 J750 J786 J822 J858">
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12 J16 J20 J32 J36 J48 J84 J120 J156 J192 J228 J264 J300 J336 J372 J408 J444 J480 J516 J552 J588 J624 J660 J696 J732 J768 J804 J840 J876 J52 J88 J124 J160 J196 J232 J268 J304 J340 J376 J412 J448 J484 J520 J556 J592 J628 J664 J700 J736 J772 J808 J844 J880 J56 J92 J128 J164 J200 J236 J272 J308 J344 J380 J416 J452 J488 J524 J560 J596 J632 J668 J704 J740 J776 J812 J848 J884 J68 J104 J140 J176 J212 J248 J284 J320 J356 J392 J428 J464 J500 J536 J572 J608 J644 J680 J716 J752 J788 J824 J860 J72 J108 J144 J180 J216 J252 J288 J324 J360 J396 J432 J468 J504 J540 J576 J612 J648 J684 J720 J756 J792 J828 J864">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
